--- a/List_500_companies.xlsx
+++ b/List_500_companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\Analytics\R Programming\GitHub\App\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4F0FC3-5BA2-4CAA-BC39-D78E34925867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336A81C-97C0-4A20-86CE-E179344E372C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{F5CAB0DF-046F-4D12-B097-11979BCC4BE9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="997">
   <si>
     <t>symbol</t>
   </si>
@@ -2096,934 +2096,937 @@
     <t>HATSUN</t>
   </si>
   <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>HEIDELBERG</t>
+  </si>
+  <si>
+    <t>HERITGFOOD</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
+    <t>HFCL</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>HINDCOPPER</t>
+  </si>
+  <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>HINDZINC</t>
+  </si>
+  <si>
+    <t>HONAUT</t>
+  </si>
+  <si>
+    <t>HSCL</t>
+  </si>
+  <si>
+    <t>HUDCO</t>
+  </si>
+  <si>
+    <t>IBREALEST</t>
+  </si>
+  <si>
+    <t>IBULHSGFIN</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>ICICIPRULI</t>
+  </si>
+  <si>
+    <t>ICRA</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>IDFC</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>IFBIND</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>IIFLWAM</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>INDIAMART</t>
+  </si>
+  <si>
+    <t>INDIANB</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>INDOCO</t>
+  </si>
+  <si>
+    <t>INDUSINDBK</t>
+  </si>
+  <si>
+    <t>INDUSTOWER</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>INGERRAND</t>
+  </si>
+  <si>
+    <t>INOXLEISUR</t>
+  </si>
+  <si>
+    <t>IOB</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>IOLCP</t>
+  </si>
+  <si>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>IRB</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>ISEC</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>ITI</t>
+  </si>
+  <si>
+    <t>JAGRAN</t>
+  </si>
+  <si>
+    <t>JAICORPLTD</t>
+  </si>
+  <si>
+    <t>JAMNAAUTO</t>
+  </si>
+  <si>
+    <t>JBCHEPHARM</t>
+  </si>
+  <si>
+    <t>JCHAC</t>
+  </si>
+  <si>
+    <t>JINDALSAW</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>JKPAPER</t>
+  </si>
+  <si>
+    <t>JKTYRE</t>
+  </si>
+  <si>
+    <t>JMFINANCIL</t>
+  </si>
+  <si>
+    <t>JSL</t>
+  </si>
+  <si>
+    <t>JSLHISAR</t>
+  </si>
+  <si>
+    <t>JSWENERGY</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>JTEKTINDIA</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>JUSTDIAL</t>
+  </si>
+  <si>
+    <t>JYOTHYLAB</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>KALPATPOWR</t>
+  </si>
+  <si>
+    <t>KANSAINER</t>
+  </si>
+  <si>
+    <t>KARURVYSYA</t>
+  </si>
+  <si>
+    <t>KEC</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>KNRCON</t>
+  </si>
+  <si>
+    <t>KOLTEPATIL</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>KSCL</t>
+  </si>
+  <si>
+    <t>KTKBANK</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>LAOPALA</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>LAXMIMACH</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>LINDEINDIA</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LTI</t>
+  </si>
+  <si>
+    <t>LTTS</t>
+  </si>
+  <si>
+    <t>LUPIN</t>
+  </si>
+  <si>
+    <t>LUXIND</t>
+  </si>
+  <si>
+    <t>MAHABANK</t>
+  </si>
+  <si>
+    <t>MAHINDCIE</t>
+  </si>
+  <si>
+    <t>MAHLOG</t>
+  </si>
+  <si>
+    <t>MAHSCOOTER</t>
+  </si>
+  <si>
+    <t>MAHSEAMLES</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>MASFIN</t>
+  </si>
+  <si>
+    <t>MCDOWELL-N</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
+  </si>
+  <si>
+    <t>MFSL</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>MIDHANI</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>MINDAIND</t>
+  </si>
+  <si>
+    <t>MINDTREE</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>MOIL</t>
+  </si>
+  <si>
+    <t>MOTHERSUMI</t>
+  </si>
+  <si>
+    <t>MOTILALOFS</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>MRPL</t>
+  </si>
+  <si>
+    <t>MUTHOOTFIN</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>NATIONALUM</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
+    <t>NAVNETEDUL</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>NESCO</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NHPC</t>
+  </si>
+  <si>
+    <t>NIACL</t>
+  </si>
+  <si>
+    <t>NILKAMAL</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>NOCIL</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>OBEROIRLTY</t>
+  </si>
+  <si>
+    <t>OFSS</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>OMAXE</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>ORIENTCEM</t>
+  </si>
+  <si>
+    <t>ORIENTELEC</t>
+  </si>
+  <si>
+    <t>ORIENTREF</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>PERSISTENT</t>
+  </si>
+  <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>PFIZER</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>PGHL</t>
+  </si>
+  <si>
+    <t>PHILIPCARB</t>
+  </si>
+  <si>
+    <t>PHOENIXLTD</t>
+  </si>
+  <si>
+    <t>PIDILITIND</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>PNBHOUSING</t>
+  </si>
+  <si>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>POLYMED</t>
+  </si>
+  <si>
+    <t>POLYPLEX</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>POWERINDIA</t>
+  </si>
+  <si>
+    <t>PRAJIND</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>PRSMJOHNSN</t>
+  </si>
+  <si>
+    <t>PSPPROJECT</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>RAJESHEXPO</t>
+  </si>
+  <si>
+    <t>RALLIS</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>RATNAMANI</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>RCF</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>REDINGTON</t>
+  </si>
+  <si>
+    <t>RELAXO</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>RITES</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>SANOFI</t>
+  </si>
+  <si>
+    <t>SBICARD</t>
+  </si>
+  <si>
+    <t>SBILIFE</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>SCHAEFFLER</t>
+  </si>
+  <si>
+    <t>SCHNEIDER</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>SEQUENT</t>
+  </si>
+  <si>
+    <t>SFL</t>
+  </si>
+  <si>
+    <t>SHILPAMED</t>
+  </si>
+  <si>
+    <t>SHOPERSTOP</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>SHRIRAMCIT</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>SIS</t>
+  </si>
+  <si>
+    <t>SJVN</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>SOLARA</t>
+  </si>
+  <si>
+    <t>SOLARINDS</t>
+  </si>
+  <si>
+    <t>SONATSOFTW</t>
+  </si>
+  <si>
+    <t>SOUTHBANK</t>
+  </si>
+  <si>
+    <t>SPARC</t>
+  </si>
+  <si>
+    <t>SPICEJET</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>SRTRANSFIN</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>STARCEMENT</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>SUDARSCHEM</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>SUNDARMFIN</t>
+  </si>
+  <si>
+    <t>SUNDRMFAST</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>SUNTECK</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>SUPPETRO</t>
+  </si>
+  <si>
+    <t>SUPRAJIT</t>
+  </si>
+  <si>
+    <t>SUPREMEIND</t>
+  </si>
+  <si>
+    <t>SUVENPHAR</t>
+  </si>
+  <si>
+    <t>SUZLON</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>SWARAJENG</t>
+  </si>
+  <si>
+    <t>SWSOLAR</t>
+  </si>
+  <si>
+    <t>SYMPHONY</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>TASTYBITE</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>TATACOFFEE</t>
+  </si>
+  <si>
+    <t>TATACOMM</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>TATAELXSI</t>
+  </si>
+  <si>
+    <t>TATAINVEST</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>TATAMTRDVR</t>
+  </si>
+  <si>
+    <t>TATAPOWER</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>TATASTLBSL</t>
+  </si>
+  <si>
+    <t>TCIEXP</t>
+  </si>
+  <si>
+    <t>TCNSBRANDS</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>TEAMLEASE</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>THYROCARE</t>
+  </si>
+  <si>
+    <t>TIINDIA</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>TRENT</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>TTKPRESTIG</t>
+  </si>
+  <si>
+    <t>TV18BRDCST</t>
+  </si>
+  <si>
+    <t>TVSMOTOR</t>
+  </si>
+  <si>
+    <t>TVTODAY</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>UCOBANK</t>
+  </si>
+  <si>
+    <t>UFLEX</t>
+  </si>
+  <si>
+    <t>UJJIVAN</t>
+  </si>
+  <si>
+    <t>UJJIVANSFB</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>UNIONBANK</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>VAIBHAVGBL</t>
+  </si>
+  <si>
+    <t>VAKRANGEE</t>
+  </si>
+  <si>
+    <t>VARROC</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>VENKEYS</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>VINATIORGA</t>
+  </si>
+  <si>
+    <t>VIPIND</t>
+  </si>
+  <si>
+    <t>VMART</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
+  </si>
+  <si>
+    <t>VRLLOG</t>
+  </si>
+  <si>
+    <t>VSTIND</t>
+  </si>
+  <si>
+    <t>VTL</t>
+  </si>
+  <si>
+    <t>WABCOINDIA</t>
+  </si>
+  <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>WELSPUNIND</t>
+  </si>
+  <si>
+    <t>WESTLIFE</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
+    <t>WOCKPHARMA</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>ZEEL</t>
+  </si>
+  <si>
+    <t>ZENSARTECH</t>
+  </si>
+  <si>
+    <t>ZYDUSWELL</t>
+  </si>
+  <si>
     <t>HAVELLS</t>
   </si>
   <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>HEIDELBERG</t>
-  </si>
-  <si>
-    <t>HERITGFOOD</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>HFCL</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>HINDCOPPER</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>HINDZINC</t>
-  </si>
-  <si>
-    <t>HONAUT</t>
-  </si>
-  <si>
-    <t>HSCL</t>
-  </si>
-  <si>
-    <t>HUDCO</t>
-  </si>
-  <si>
-    <t>IBREALEST</t>
-  </si>
-  <si>
-    <t>IBULHSGFIN</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>ICICIGI</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>ICRA</t>
-  </si>
-  <si>
-    <t>IDBI</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>IDFC</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>IFBIND</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>IIFLWAM</t>
-  </si>
-  <si>
-    <t>INDHOTEL</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
-  </si>
-  <si>
-    <t>INDIAMART</t>
-  </si>
-  <si>
-    <t>INDIANB</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>INDOCO</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>INDUSTOWER</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>INGERRAND</t>
-  </si>
-  <si>
-    <t>INOXLEISUR</t>
-  </si>
-  <si>
-    <t>IOB</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>IOLCP</t>
-  </si>
-  <si>
-    <t>IPCALAB</t>
-  </si>
-  <si>
-    <t>IRB</t>
-  </si>
-  <si>
-    <t>IRCON</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>ISEC</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>ITI</t>
+    <t>SL_no</t>
   </si>
   <si>
     <t>J&amp;KBANK</t>
   </si>
   <si>
-    <t>JAGRAN</t>
-  </si>
-  <si>
-    <t>JAICORPLTD</t>
-  </si>
-  <si>
-    <t>JAMNAAUTO</t>
-  </si>
-  <si>
-    <t>JBCHEPHARM</t>
-  </si>
-  <si>
-    <t>JCHAC</t>
-  </si>
-  <si>
-    <t>JINDALSAW</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>JKPAPER</t>
-  </si>
-  <si>
-    <t>JKTYRE</t>
-  </si>
-  <si>
-    <t>JMFINANCIL</t>
-  </si>
-  <si>
-    <t>JSL</t>
-  </si>
-  <si>
-    <t>JSLHISAR</t>
-  </si>
-  <si>
-    <t>JSWENERGY</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>JTEKTINDIA</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>JYOTHYLAB</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>KALPATPOWR</t>
-  </si>
-  <si>
-    <t>KANSAINER</t>
-  </si>
-  <si>
-    <t>KARURVYSYA</t>
-  </si>
-  <si>
-    <t>KEC</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>KNRCON</t>
-  </si>
-  <si>
-    <t>KOLTEPATIL</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>KSCL</t>
-  </si>
-  <si>
-    <t>KTKBANK</t>
-  </si>
-  <si>
     <t>L&amp;TFH</t>
   </si>
   <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>LAOPALA</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>LAXMIMACH</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>LICHSGFIN</t>
-  </si>
-  <si>
-    <t>LINDEINDIA</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LTI</t>
-  </si>
-  <si>
-    <t>LTTS</t>
-  </si>
-  <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>LUXIND</t>
-  </si>
-  <si>
     <t>M&amp;M</t>
   </si>
   <si>
     <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>MAHABANK</t>
-  </si>
-  <si>
-    <t>MAHINDCIE</t>
-  </si>
-  <si>
-    <t>MAHLOG</t>
-  </si>
-  <si>
-    <t>MAHSCOOTER</t>
-  </si>
-  <si>
-    <t>MAHSEAMLES</t>
-  </si>
-  <si>
-    <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>MARICO</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>MASFIN</t>
-  </si>
-  <si>
-    <t>MCDOWELL-N</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>MFSL</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>MIDHANI</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>MINDAIND</t>
-  </si>
-  <si>
-    <t>MINDTREE</t>
-  </si>
-  <si>
-    <t>MMTC</t>
-  </si>
-  <si>
-    <t>MOIL</t>
-  </si>
-  <si>
-    <t>MOTHERSUMI</t>
-  </si>
-  <si>
-    <t>MOTILALOFS</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>MRPL</t>
-  </si>
-  <si>
-    <t>MUTHOOTFIN</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>NAVNETEDUL</t>
-  </si>
-  <si>
-    <t>NBCC</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>NESCO</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>NHPC</t>
-  </si>
-  <si>
-    <t>NIACL</t>
-  </si>
-  <si>
-    <t>NILKAMAL</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>NOCIL</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>OBEROIRLTY</t>
-  </si>
-  <si>
-    <t>OFSS</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>OMAXE</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>ORIENTCEM</t>
-  </si>
-  <si>
-    <t>ORIENTELEC</t>
-  </si>
-  <si>
-    <t>ORIENTREF</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>PERSISTENT</t>
-  </si>
-  <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>PFIZER</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>PGHL</t>
-  </si>
-  <si>
-    <t>PHILIPCARB</t>
-  </si>
-  <si>
-    <t>PHOENIXLTD</t>
-  </si>
-  <si>
-    <t>PIDILITIND</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>PNBHOUSING</t>
-  </si>
-  <si>
-    <t>PNCINFRA</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>POLYMED</t>
-  </si>
-  <si>
-    <t>POLYPLEX</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>POWERINDIA</t>
-  </si>
-  <si>
-    <t>PRAJIND</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>PRSMJOHNSN</t>
-  </si>
-  <si>
-    <t>PSPPROJECT</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>RADICO</t>
-  </si>
-  <si>
-    <t>RAIN</t>
-  </si>
-  <si>
-    <t>RAJESHEXPO</t>
-  </si>
-  <si>
-    <t>RALLIS</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>RATNAMANI</t>
-  </si>
-  <si>
-    <t>RAYMOND</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>RCF</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>REDINGTON</t>
-  </si>
-  <si>
-    <t>RELAXO</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>RITES</t>
-  </si>
-  <si>
-    <t>RVNL</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>SBICARD</t>
-  </si>
-  <si>
-    <t>SBILIFE</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>SCHAEFFLER</t>
-  </si>
-  <si>
-    <t>SCHNEIDER</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>SEQUENT</t>
-  </si>
-  <si>
-    <t>SFL</t>
-  </si>
-  <si>
-    <t>SHILPAMED</t>
-  </si>
-  <si>
-    <t>SHOPERSTOP</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>SHRIRAMCIT</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>SIS</t>
-  </si>
-  <si>
-    <t>SJVN</t>
-  </si>
-  <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>SOLARA</t>
-  </si>
-  <si>
-    <t>SOLARINDS</t>
-  </si>
-  <si>
-    <t>SONATSOFTW</t>
-  </si>
-  <si>
-    <t>SOUTHBANK</t>
-  </si>
-  <si>
-    <t>SPARC</t>
-  </si>
-  <si>
-    <t>SPICEJET</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>SRTRANSFIN</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>STARCEMENT</t>
-  </si>
-  <si>
-    <t>STLTECH</t>
-  </si>
-  <si>
-    <t>SUDARSCHEM</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>SUNDARMFIN</t>
-  </si>
-  <si>
-    <t>SUNDRMFAST</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>SUNTECK</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>SUPPETRO</t>
-  </si>
-  <si>
-    <t>SUPRAJIT</t>
-  </si>
-  <si>
-    <t>SUPREMEIND</t>
-  </si>
-  <si>
-    <t>SUVENPHAR</t>
-  </si>
-  <si>
-    <t>SUZLON</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>SWARAJENG</t>
-  </si>
-  <si>
-    <t>SWSOLAR</t>
-  </si>
-  <si>
-    <t>SYMPHONY</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>TASTYBITE</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>TATACOFFEE</t>
-  </si>
-  <si>
-    <t>TATACOMM</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>TATAELXSI</t>
-  </si>
-  <si>
-    <t>TATAINVEST</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>TATAMTRDVR</t>
-  </si>
-  <si>
-    <t>TATAPOWER</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>TATASTLBSL</t>
-  </si>
-  <si>
-    <t>TCIEXP</t>
-  </si>
-  <si>
-    <t>TCNSBRANDS</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>TEAMLEASE</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>THYROCARE</t>
-  </si>
-  <si>
-    <t>TIINDIA</t>
-  </si>
-  <si>
-    <t>TIMKEN</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>TRENT</t>
-  </si>
-  <si>
-    <t>TRIDENT</t>
-  </si>
-  <si>
-    <t>TTKPRESTIG</t>
-  </si>
-  <si>
-    <t>TV18BRDCST</t>
-  </si>
-  <si>
-    <t>TVSMOTOR</t>
-  </si>
-  <si>
-    <t>TVTODAY</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>UCOBANK</t>
-  </si>
-  <si>
-    <t>UFLEX</t>
-  </si>
-  <si>
-    <t>UJJIVAN</t>
-  </si>
-  <si>
-    <t>UJJIVANSFB</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>UNIONBANK</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>VAIBHAVGBL</t>
-  </si>
-  <si>
-    <t>VAKRANGEE</t>
-  </si>
-  <si>
-    <t>VARROC</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>VENKEYS</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>VINATIORGA</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
-  </si>
-  <si>
-    <t>VMART</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
-  </si>
-  <si>
-    <t>VRLLOG</t>
-  </si>
-  <si>
-    <t>VSTIND</t>
-  </si>
-  <si>
-    <t>VTL</t>
-  </si>
-  <si>
-    <t>WABCOINDIA</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>WELSPUNIND</t>
-  </si>
-  <si>
-    <t>WESTLIFE</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>WOCKPHARMA</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>ZENSARTECH</t>
-  </si>
-  <si>
-    <t>ZYDUSWELL</t>
   </si>
 </sst>
 </file>
@@ -3375,9 +3378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF0037-91BC-49DA-B521-E8BB52BFA66A}">
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3385,3992 +3390,5486 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+      <c r="C189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="C190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="C193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="C195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="C196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="C234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+      <c r="C235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="C236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="C237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="C238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="C239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="C240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="C242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="C243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+      <c r="C244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="C245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+      <c r="C246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="C247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="C248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="C249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="C250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="C251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+      <c r="C252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="C253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="C254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="C255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+      <c r="C256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+      <c r="C257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+      <c r="C258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="C259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="C260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+      <c r="C262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+      <c r="C263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+      <c r="C264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="C265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="C266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="C267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="C268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+      <c r="C269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="C270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="C271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="C272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="C273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+      <c r="C274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="C275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="C276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+      <c r="C277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="C278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="C279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="C280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+      <c r="C281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="C282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="C283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="C284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+      <c r="C285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="C286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="C287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="C288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+      <c r="C289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="C290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+      <c r="C291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+      <c r="C292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+      <c r="C293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="C294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+      <c r="C295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="C296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+      <c r="C297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+      <c r="C298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="C299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="C300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="C301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+      <c r="C302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="C303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="C304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+      <c r="C305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="C306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+      <c r="C307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="C308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+      <c r="C309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="C310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="C311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+      <c r="C312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+      <c r="C313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+      <c r="C314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+      <c r="C315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+      <c r="C316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+      <c r="C317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+      <c r="C318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+      <c r="C319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+      <c r="C320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="C321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+      <c r="C322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+      <c r="C323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+      <c r="C324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+      <c r="C325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+      <c r="C326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="C327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="C328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="C329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="C330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+      <c r="C331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="C332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="C333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="C334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="C335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="C336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="C337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="C338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="C339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="C340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+      <c r="C341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="C342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="C343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="C344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="C345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="C346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="C347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="C348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="C349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+      <c r="C350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="C351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="C352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+      <c r="C353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+      <c r="C354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+      <c r="C355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="C356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="C357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="C358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="C359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="C360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="C361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="C362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+      <c r="C363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="C364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="C365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="C366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="C367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="C368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+      <c r="C369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="C370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="C371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="C372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="C373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="C374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="C375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="C376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+      <c r="C377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+      <c r="C378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+      <c r="C379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="C380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="C381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+      <c r="C382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+      <c r="C383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+      <c r="C384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+      <c r="C385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="C386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+      <c r="C387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+      <c r="C388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="C389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+      <c r="C390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="C391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="C392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+      <c r="C393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+      <c r="C394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+      <c r="C395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="C396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="C397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+      <c r="C398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+      <c r="C399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+      <c r="C400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="C401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+      <c r="C402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+      <c r="C403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+      <c r="C404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+      <c r="C405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+      <c r="C406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+      <c r="C407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="C408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+      <c r="C409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="C410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="C411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="C412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+      <c r="C413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+      <c r="C414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+      <c r="C415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+      <c r="C416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+      <c r="C417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+      <c r="C418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+      <c r="C419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+      <c r="C420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+      <c r="C421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+      <c r="C422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="C423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+      <c r="C424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+      <c r="C425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+      <c r="C426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="C427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="C428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+      <c r="C429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+      <c r="C430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+      <c r="C431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="C432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+      <c r="C433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+      <c r="C434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+      <c r="C435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+      <c r="C436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+      <c r="C437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+      <c r="C438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="C439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+      <c r="C440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="C441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+      <c r="C442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+      <c r="C443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="C444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="C445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+      <c r="C446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+      <c r="C447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+      <c r="C448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+      <c r="C449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="C450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+      <c r="C451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="C452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+      <c r="C453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="C454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+      <c r="C455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+      <c r="C456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="C457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+      <c r="C458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+      <c r="C459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+      <c r="C460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+      <c r="C461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+      <c r="C462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+      <c r="C463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="C464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+      <c r="C465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+      <c r="C466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+      <c r="C467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="C468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="C469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+      <c r="C470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+      <c r="C471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+      <c r="C472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+      <c r="C473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+      <c r="C474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+      <c r="C475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+      <c r="C476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+      <c r="C477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+      <c r="C478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+      <c r="C479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+      <c r="C480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+      <c r="C481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+      <c r="C482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+      <c r="C483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+      <c r="C484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+      <c r="C485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="C486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+      <c r="C487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+      <c r="C488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+      <c r="C489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+      <c r="C490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+      <c r="C491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+      <c r="C492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+      <c r="C493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+      <c r="C494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+      <c r="C495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+      <c r="C496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+      <c r="C497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>995</v>
+        <v>990</v>
+      </c>
+      <c r="C498">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{DBB9DB21-5B60-4317-B513-CF25FC4F25D4}"/>
+  <autoFilter ref="A1:C1" xr:uid="{40CFAD94-F0ED-489B-AB83-C7A69BB82CC2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/List_500_companies.xlsx
+++ b/List_500_companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\Analytics\R Programming\GitHub\App\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5336A81C-97C0-4A20-86CE-E179344E372C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3200103-9835-4F96-BD75-20F77DAD32DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{F5CAB0DF-046F-4D12-B097-11979BCC4BE9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$498</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1001">
   <si>
     <t>symbol</t>
   </si>
@@ -3027,6 +3027,18 @@
   </si>
   <si>
     <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>Selective</t>
+  </si>
+  <si>
+    <t>My Portfolio</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Ex Portfolio</t>
   </si>
 </sst>
 </file>
@@ -3042,12 +3054,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3062,13 +3080,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3378,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFF0037-91BC-49DA-B521-E8BB52BFA66A}">
-  <dimension ref="A1:C498"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3426,7 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3400,8 +3436,11 @@
       <c r="C1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3411,8 +3450,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3422,8 +3464,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3433,8 +3478,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3444,8 +3492,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3455,8 +3506,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3466,8 +3520,11 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3477,8 +3534,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3488,8 +3548,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3499,8 +3562,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3510,8 +3576,11 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3521,8 +3590,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3532,8 +3604,11 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3543,8 +3618,11 @@
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3554,8 +3632,11 @@
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3565,8 +3646,11 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3576,8 +3660,11 @@
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3587,8 +3674,11 @@
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3598,8 +3688,11 @@
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3609,8 +3702,11 @@
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3620,8 +3716,11 @@
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3631,8 +3730,11 @@
       <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3642,8 +3744,11 @@
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3653,8 +3758,11 @@
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3664,8 +3772,11 @@
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3675,8 +3786,11 @@
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3686,8 +3800,11 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3697,8 +3814,11 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3708,8 +3828,11 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3719,8 +3842,11 @@
       <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3730,8 +3856,11 @@
       <c r="C31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3741,8 +3870,11 @@
       <c r="C32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3752,8 +3884,11 @@
       <c r="C33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3763,8 +3898,11 @@
       <c r="C34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3774,8 +3912,11 @@
       <c r="C35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3785,8 +3926,11 @@
       <c r="C36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3796,8 +3940,11 @@
       <c r="C37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3807,8 +3954,11 @@
       <c r="C38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3818,8 +3968,11 @@
       <c r="C39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3829,8 +3982,11 @@
       <c r="C40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3840,8 +3996,11 @@
       <c r="C41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3851,8 +4010,11 @@
       <c r="C42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3862,8 +4024,11 @@
       <c r="C43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3873,8 +4038,11 @@
       <c r="C44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3884,8 +4052,11 @@
       <c r="C45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3895,8 +4066,11 @@
       <c r="C46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3906,8 +4080,11 @@
       <c r="C47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3917,8 +4094,11 @@
       <c r="C48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3928,8 +4108,11 @@
       <c r="C49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3939,8 +4122,11 @@
       <c r="C50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3950,8 +4136,11 @@
       <c r="C51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3961,8 +4150,11 @@
       <c r="C52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3972,8 +4164,11 @@
       <c r="C53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3983,8 +4178,11 @@
       <c r="C54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3994,8 +4192,11 @@
       <c r="C55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4005,8 +4206,11 @@
       <c r="C56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4016,8 +4220,11 @@
       <c r="C57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4027,8 +4234,11 @@
       <c r="C58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4038,8 +4248,11 @@
       <c r="C59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4262,11 @@
       <c r="C60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4060,8 +4276,11 @@
       <c r="C61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4071,8 +4290,11 @@
       <c r="C62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4082,8 +4304,11 @@
       <c r="C63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4093,8 +4318,11 @@
       <c r="C64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4104,8 +4332,11 @@
       <c r="C65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4115,8 +4346,11 @@
       <c r="C66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4126,8 +4360,11 @@
       <c r="C67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4137,8 +4374,11 @@
       <c r="C68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4148,8 +4388,11 @@
       <c r="C69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4159,8 +4402,11 @@
       <c r="C70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4170,8 +4416,11 @@
       <c r="C71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4181,8 +4430,11 @@
       <c r="C72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4192,8 +4444,11 @@
       <c r="C73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4203,8 +4458,11 @@
       <c r="C74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4214,8 +4472,11 @@
       <c r="C75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4486,11 @@
       <c r="C76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4236,8 +4500,11 @@
       <c r="C77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4247,8 +4514,11 @@
       <c r="C78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4258,8 +4528,11 @@
       <c r="C79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4269,8 +4542,11 @@
       <c r="C80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4280,8 +4556,11 @@
       <c r="C81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4291,8 +4570,11 @@
       <c r="C82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4302,8 +4584,11 @@
       <c r="C83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4313,8 +4598,11 @@
       <c r="C84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4324,8 +4612,11 @@
       <c r="C85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4335,8 +4626,11 @@
       <c r="C86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4346,8 +4640,11 @@
       <c r="C87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4357,8 +4654,11 @@
       <c r="C88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4368,8 +4668,11 @@
       <c r="C89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4379,8 +4682,11 @@
       <c r="C90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4390,8 +4696,11 @@
       <c r="C91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4401,8 +4710,11 @@
       <c r="C92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4412,8 +4724,11 @@
       <c r="C93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4423,8 +4738,11 @@
       <c r="C94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4434,8 +4752,11 @@
       <c r="C95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4445,8 +4766,11 @@
       <c r="C96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4456,8 +4780,11 @@
       <c r="C97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4467,8 +4794,11 @@
       <c r="C98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4478,8 +4808,11 @@
       <c r="C99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4489,8 +4822,11 @@
       <c r="C100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4500,8 +4836,11 @@
       <c r="C101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4511,8 +4850,11 @@
       <c r="C102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4522,8 +4864,11 @@
       <c r="C103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4533,8 +4878,11 @@
       <c r="C104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4544,8 +4892,11 @@
       <c r="C105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4555,8 +4906,11 @@
       <c r="C106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4566,8 +4920,11 @@
       <c r="C107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4577,8 +4934,11 @@
       <c r="C108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4588,8 +4948,11 @@
       <c r="C109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4599,8 +4962,11 @@
       <c r="C110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4610,8 +4976,11 @@
       <c r="C111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4621,8 +4990,11 @@
       <c r="C112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4632,8 +5004,11 @@
       <c r="C113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4643,8 +5018,11 @@
       <c r="C114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4654,8 +5032,11 @@
       <c r="C115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4665,8 +5046,11 @@
       <c r="C116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4676,8 +5060,11 @@
       <c r="C117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4687,8 +5074,11 @@
       <c r="C118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4698,8 +5088,11 @@
       <c r="C119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4709,8 +5102,11 @@
       <c r="C120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4720,8 +5116,11 @@
       <c r="C121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4731,8 +5130,11 @@
       <c r="C122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4742,8 +5144,11 @@
       <c r="C123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4753,8 +5158,11 @@
       <c r="C124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4764,8 +5172,11 @@
       <c r="C125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4775,8 +5186,11 @@
       <c r="C126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4786,8 +5200,11 @@
       <c r="C127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4797,8 +5214,11 @@
       <c r="C128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4808,8 +5228,11 @@
       <c r="C129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4819,8 +5242,11 @@
       <c r="C130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4830,8 +5256,11 @@
       <c r="C131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4841,8 +5270,11 @@
       <c r="C132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4852,8 +5284,11 @@
       <c r="C133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4863,8 +5298,11 @@
       <c r="C134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4874,8 +5312,11 @@
       <c r="C135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4885,8 +5326,11 @@
       <c r="C136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4896,8 +5340,11 @@
       <c r="C137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4907,8 +5354,11 @@
       <c r="C138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4918,8 +5368,11 @@
       <c r="C139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4929,8 +5382,11 @@
       <c r="C140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4940,8 +5396,11 @@
       <c r="C141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4951,8 +5410,11 @@
       <c r="C142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4962,8 +5424,11 @@
       <c r="C143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4973,8 +5438,11 @@
       <c r="C144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4984,8 +5452,11 @@
       <c r="C145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4995,8 +5466,11 @@
       <c r="C146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5006,8 +5480,11 @@
       <c r="C147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5017,8 +5494,11 @@
       <c r="C148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5028,8 +5508,11 @@
       <c r="C149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5039,8 +5522,11 @@
       <c r="C150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5050,8 +5536,11 @@
       <c r="C151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5061,8 +5550,11 @@
       <c r="C152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5072,8 +5564,11 @@
       <c r="C153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5083,8 +5578,11 @@
       <c r="C154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5094,8 +5592,11 @@
       <c r="C155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5105,8 +5606,11 @@
       <c r="C156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5116,8 +5620,11 @@
       <c r="C157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5127,8 +5634,11 @@
       <c r="C158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5138,8 +5648,11 @@
       <c r="C159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -5149,8 +5662,11 @@
       <c r="C160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -5160,8 +5676,11 @@
       <c r="C161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -5171,8 +5690,11 @@
       <c r="C162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -5182,8 +5704,11 @@
       <c r="C163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5193,8 +5718,11 @@
       <c r="C164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5204,8 +5732,11 @@
       <c r="C165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5215,8 +5746,11 @@
       <c r="C166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5226,8 +5760,11 @@
       <c r="C167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5237,8 +5774,11 @@
       <c r="C168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5248,8 +5788,11 @@
       <c r="C169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5259,8 +5802,11 @@
       <c r="C170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5270,8 +5816,11 @@
       <c r="C171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5281,8 +5830,11 @@
       <c r="C172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5292,8 +5844,11 @@
       <c r="C173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5303,8 +5858,11 @@
       <c r="C174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5314,8 +5872,11 @@
       <c r="C175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5325,8 +5886,11 @@
       <c r="C176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5336,8 +5900,11 @@
       <c r="C177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -5347,8 +5914,11 @@
       <c r="C178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -5358,8 +5928,11 @@
       <c r="C179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -5369,8 +5942,11 @@
       <c r="C180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -5380,8 +5956,11 @@
       <c r="C181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -5391,8 +5970,11 @@
       <c r="C182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5402,8 +5984,11 @@
       <c r="C183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5413,8 +5998,11 @@
       <c r="C184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5424,8 +6012,11 @@
       <c r="C185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5435,8 +6026,11 @@
       <c r="C186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5446,8 +6040,11 @@
       <c r="C187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5457,8 +6054,11 @@
       <c r="C188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5468,8 +6068,11 @@
       <c r="C189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5479,8 +6082,11 @@
       <c r="C190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5490,8 +6096,11 @@
       <c r="C191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5501,8 +6110,11 @@
       <c r="C192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5512,8 +6124,11 @@
       <c r="C193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5523,8 +6138,11 @@
       <c r="C194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5534,8 +6152,11 @@
       <c r="C195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5545,8 +6166,11 @@
       <c r="C196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5556,8 +6180,11 @@
       <c r="C197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5567,8 +6194,11 @@
       <c r="C198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5578,8 +6208,11 @@
       <c r="C199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5589,8 +6222,11 @@
       <c r="C200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -5600,8 +6236,11 @@
       <c r="C201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5611,8 +6250,11 @@
       <c r="C202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5622,8 +6264,11 @@
       <c r="C203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5633,8 +6278,11 @@
       <c r="C204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5644,8 +6292,11 @@
       <c r="C205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5655,8 +6306,11 @@
       <c r="C206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5666,8 +6320,11 @@
       <c r="C207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5677,8 +6334,11 @@
       <c r="C208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5688,8 +6348,11 @@
       <c r="C209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5699,8 +6362,11 @@
       <c r="C210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5710,8 +6376,11 @@
       <c r="C211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5721,8 +6390,11 @@
       <c r="C212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5732,8 +6404,11 @@
       <c r="C213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5743,8 +6418,11 @@
       <c r="C214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5754,8 +6432,11 @@
       <c r="C215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5765,8 +6446,11 @@
       <c r="C216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5776,8 +6460,11 @@
       <c r="C217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5787,8 +6474,11 @@
       <c r="C218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5798,8 +6488,11 @@
       <c r="C219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5809,8 +6502,11 @@
       <c r="C220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5820,8 +6516,11 @@
       <c r="C221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5831,8 +6530,11 @@
       <c r="C222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5842,8 +6544,11 @@
       <c r="C223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5853,8 +6558,11 @@
       <c r="C224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5864,8 +6572,11 @@
       <c r="C225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5875,8 +6586,11 @@
       <c r="C226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5886,8 +6600,11 @@
       <c r="C227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5897,8 +6614,11 @@
       <c r="C228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5908,8 +6628,11 @@
       <c r="C229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5919,8 +6642,11 @@
       <c r="C230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5930,8 +6656,11 @@
       <c r="C231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5941,8 +6670,11 @@
       <c r="C232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5952,8 +6684,11 @@
       <c r="C233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5963,8 +6698,11 @@
       <c r="C234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5974,8 +6712,11 @@
       <c r="C235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5985,8 +6726,11 @@
       <c r="C236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5996,8 +6740,11 @@
       <c r="C237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -6007,8 +6754,11 @@
       <c r="C238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -6018,8 +6768,11 @@
       <c r="C239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -6029,8 +6782,11 @@
       <c r="C240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -6040,8 +6796,11 @@
       <c r="C241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -6051,8 +6810,11 @@
       <c r="C242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -6062,8 +6824,11 @@
       <c r="C243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -6073,8 +6838,11 @@
       <c r="C244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -6084,8 +6852,11 @@
       <c r="C245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -6095,8 +6866,11 @@
       <c r="C246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -6106,8 +6880,11 @@
       <c r="C247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -6117,8 +6894,11 @@
       <c r="C248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -6128,8 +6908,11 @@
       <c r="C249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -6139,8 +6922,11 @@
       <c r="C250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -6150,8 +6936,11 @@
       <c r="C251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -6161,8 +6950,11 @@
       <c r="C252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -6172,8 +6964,11 @@
       <c r="C253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -6183,8 +6978,11 @@
       <c r="C254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -6194,8 +6992,11 @@
       <c r="C255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -6205,8 +7006,11 @@
       <c r="C256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -6216,8 +7020,11 @@
       <c r="C257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -6227,8 +7034,11 @@
       <c r="C258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -6238,8 +7048,11 @@
       <c r="C259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -6249,8 +7062,11 @@
       <c r="C260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -6260,8 +7076,11 @@
       <c r="C261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -6271,8 +7090,11 @@
       <c r="C262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -6282,8 +7104,11 @@
       <c r="C263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -6293,8 +7118,11 @@
       <c r="C264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -6304,8 +7132,11 @@
       <c r="C265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -6315,8 +7146,11 @@
       <c r="C266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -6326,8 +7160,11 @@
       <c r="C267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -6337,8 +7174,11 @@
       <c r="C268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -6348,8 +7188,11 @@
       <c r="C269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -6359,8 +7202,11 @@
       <c r="C270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -6370,8 +7216,11 @@
       <c r="C271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -6381,8 +7230,11 @@
       <c r="C272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -6392,8 +7244,11 @@
       <c r="C273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -6403,8 +7258,11 @@
       <c r="C274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -6414,8 +7272,11 @@
       <c r="C275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -6425,8 +7286,11 @@
       <c r="C276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -6436,8 +7300,11 @@
       <c r="C277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -6447,8 +7314,11 @@
       <c r="C278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -6458,8 +7328,11 @@
       <c r="C279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -6469,8 +7342,11 @@
       <c r="C280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -6480,8 +7356,11 @@
       <c r="C281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -6491,8 +7370,11 @@
       <c r="C282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -6502,8 +7384,11 @@
       <c r="C283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -6513,8 +7398,11 @@
       <c r="C284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -6524,8 +7412,11 @@
       <c r="C285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -6535,8 +7426,11 @@
       <c r="C286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -6546,8 +7440,11 @@
       <c r="C287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -6557,8 +7454,11 @@
       <c r="C288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -6568,8 +7468,11 @@
       <c r="C289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -6579,8 +7482,11 @@
       <c r="C290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -6590,8 +7496,11 @@
       <c r="C291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -6601,8 +7510,11 @@
       <c r="C292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -6612,8 +7524,11 @@
       <c r="C293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6623,8 +7538,11 @@
       <c r="C294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6634,8 +7552,11 @@
       <c r="C295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6645,8 +7566,11 @@
       <c r="C296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6656,8 +7580,11 @@
       <c r="C297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6667,8 +7594,11 @@
       <c r="C298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6678,8 +7608,11 @@
       <c r="C299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -6689,8 +7622,11 @@
       <c r="C300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -6700,8 +7636,11 @@
       <c r="C301">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -6711,8 +7650,11 @@
       <c r="C302">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6722,8 +7664,11 @@
       <c r="C303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -6733,8 +7678,11 @@
       <c r="C304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -6744,8 +7692,11 @@
       <c r="C305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -6755,8 +7706,11 @@
       <c r="C306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -6766,8 +7720,11 @@
       <c r="C307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -6777,8 +7734,11 @@
       <c r="C308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -6788,8 +7748,11 @@
       <c r="C309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -6799,8 +7762,11 @@
       <c r="C310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6810,8 +7776,11 @@
       <c r="C311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -6821,8 +7790,11 @@
       <c r="C312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -6832,8 +7804,11 @@
       <c r="C313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6843,8 +7818,11 @@
       <c r="C314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -6854,8 +7832,11 @@
       <c r="C315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -6865,8 +7846,11 @@
       <c r="C316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -6876,8 +7860,11 @@
       <c r="C317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -6887,8 +7874,11 @@
       <c r="C318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -6898,8 +7888,11 @@
       <c r="C319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -6909,8 +7902,11 @@
       <c r="C320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -6920,8 +7916,11 @@
       <c r="C321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -6931,8 +7930,11 @@
       <c r="C322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -6942,8 +7944,11 @@
       <c r="C323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6953,8 +7958,11 @@
       <c r="C324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -6964,8 +7972,11 @@
       <c r="C325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -6975,8 +7986,11 @@
       <c r="C326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -6986,8 +8000,11 @@
       <c r="C327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -6997,8 +8014,11 @@
       <c r="C328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -7008,8 +8028,11 @@
       <c r="C329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -7019,8 +8042,11 @@
       <c r="C330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -7030,8 +8056,11 @@
       <c r="C331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -7041,8 +8070,11 @@
       <c r="C332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -7052,8 +8084,11 @@
       <c r="C333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -7063,8 +8098,11 @@
       <c r="C334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -7074,8 +8112,11 @@
       <c r="C335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -7085,8 +8126,11 @@
       <c r="C336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -7096,8 +8140,11 @@
       <c r="C337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -7107,8 +8154,11 @@
       <c r="C338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -7118,8 +8168,11 @@
       <c r="C339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -7129,8 +8182,11 @@
       <c r="C340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -7140,8 +8196,11 @@
       <c r="C341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -7151,8 +8210,11 @@
       <c r="C342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -7162,8 +8224,11 @@
       <c r="C343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -7173,8 +8238,11 @@
       <c r="C344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -7184,8 +8252,11 @@
       <c r="C345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -7195,8 +8266,11 @@
       <c r="C346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -7206,8 +8280,11 @@
       <c r="C347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -7217,8 +8294,11 @@
       <c r="C348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -7228,8 +8308,11 @@
       <c r="C349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -7239,8 +8322,11 @@
       <c r="C350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -7250,8 +8336,11 @@
       <c r="C351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -7261,8 +8350,11 @@
       <c r="C352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -7272,8 +8364,11 @@
       <c r="C353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -7283,8 +8378,11 @@
       <c r="C354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -7294,8 +8392,11 @@
       <c r="C355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -7305,8 +8406,11 @@
       <c r="C356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -7316,8 +8420,11 @@
       <c r="C357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -7327,8 +8434,11 @@
       <c r="C358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -7338,8 +8448,11 @@
       <c r="C359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -7349,8 +8462,11 @@
       <c r="C360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -7360,8 +8476,11 @@
       <c r="C361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -7371,8 +8490,11 @@
       <c r="C362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -7382,8 +8504,11 @@
       <c r="C363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -7393,8 +8518,11 @@
       <c r="C364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -7404,8 +8532,11 @@
       <c r="C365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -7415,8 +8546,11 @@
       <c r="C366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -7426,8 +8560,11 @@
       <c r="C367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -7437,8 +8574,11 @@
       <c r="C368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -7448,8 +8588,11 @@
       <c r="C369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -7459,8 +8602,11 @@
       <c r="C370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -7470,8 +8616,11 @@
       <c r="C371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -7481,8 +8630,11 @@
       <c r="C372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -7492,8 +8644,11 @@
       <c r="C373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -7503,8 +8658,11 @@
       <c r="C374">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -7514,8 +8672,11 @@
       <c r="C375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -7525,8 +8686,11 @@
       <c r="C376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -7536,8 +8700,11 @@
       <c r="C377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -7547,8 +8714,11 @@
       <c r="C378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -7558,8 +8728,11 @@
       <c r="C379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -7569,8 +8742,11 @@
       <c r="C380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -7580,8 +8756,11 @@
       <c r="C381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -7591,8 +8770,11 @@
       <c r="C382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -7602,8 +8784,11 @@
       <c r="C383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -7613,8 +8798,11 @@
       <c r="C384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -7624,8 +8812,11 @@
       <c r="C385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -7635,8 +8826,11 @@
       <c r="C386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -7646,8 +8840,11 @@
       <c r="C387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -7657,8 +8854,11 @@
       <c r="C388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -7668,8 +8868,11 @@
       <c r="C389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -7679,8 +8882,11 @@
       <c r="C390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -7690,8 +8896,11 @@
       <c r="C391">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -7701,8 +8910,11 @@
       <c r="C392">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -7712,8 +8924,11 @@
       <c r="C393">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -7723,8 +8938,11 @@
       <c r="C394">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -7734,8 +8952,11 @@
       <c r="C395">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -7745,8 +8966,11 @@
       <c r="C396">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -7756,8 +8980,11 @@
       <c r="C397">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -7767,8 +8994,11 @@
       <c r="C398">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -7778,8 +9008,11 @@
       <c r="C399">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -7789,8 +9022,11 @@
       <c r="C400">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -7800,8 +9036,11 @@
       <c r="C401">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -7811,8 +9050,11 @@
       <c r="C402">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -7822,8 +9064,11 @@
       <c r="C403">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -7833,8 +9078,11 @@
       <c r="C404">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -7844,8 +9092,11 @@
       <c r="C405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -7855,8 +9106,11 @@
       <c r="C406">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -7866,8 +9120,11 @@
       <c r="C407">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -7877,8 +9134,11 @@
       <c r="C408">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -7888,8 +9148,11 @@
       <c r="C409">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -7899,8 +9162,11 @@
       <c r="C410">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -7910,8 +9176,11 @@
       <c r="C411">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -7921,8 +9190,11 @@
       <c r="C412">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -7932,8 +9204,11 @@
       <c r="C413">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -7943,8 +9218,11 @@
       <c r="C414">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -7954,8 +9232,11 @@
       <c r="C415">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -7965,8 +9246,11 @@
       <c r="C416">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -7976,8 +9260,11 @@
       <c r="C417">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -7987,8 +9274,11 @@
       <c r="C418">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -7998,8 +9288,11 @@
       <c r="C419">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -8009,8 +9302,11 @@
       <c r="C420">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -8020,8 +9316,11 @@
       <c r="C421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -8031,8 +9330,11 @@
       <c r="C422">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -8042,8 +9344,11 @@
       <c r="C423">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -8053,8 +9358,11 @@
       <c r="C424">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -8064,8 +9372,11 @@
       <c r="C425">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -8075,8 +9386,11 @@
       <c r="C426">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -8086,8 +9400,11 @@
       <c r="C427">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -8097,8 +9414,11 @@
       <c r="C428">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -8108,8 +9428,11 @@
       <c r="C429">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -8119,8 +9442,11 @@
       <c r="C430">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -8130,8 +9456,11 @@
       <c r="C431">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -8141,8 +9470,11 @@
       <c r="C432">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -8152,8 +9484,11 @@
       <c r="C433">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -8163,8 +9498,11 @@
       <c r="C434">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -8174,8 +9512,11 @@
       <c r="C435">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -8185,8 +9526,11 @@
       <c r="C436">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -8196,8 +9540,11 @@
       <c r="C437">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -8207,8 +9554,11 @@
       <c r="C438">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -8218,8 +9568,11 @@
       <c r="C439">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -8229,8 +9582,11 @@
       <c r="C440">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -8240,8 +9596,11 @@
       <c r="C441">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -8251,8 +9610,11 @@
       <c r="C442">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -8262,8 +9624,11 @@
       <c r="C443">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -8273,8 +9638,11 @@
       <c r="C444">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -8284,8 +9652,11 @@
       <c r="C445">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -8295,8 +9666,11 @@
       <c r="C446">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -8306,8 +9680,11 @@
       <c r="C447">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -8317,8 +9694,11 @@
       <c r="C448">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -8328,8 +9708,11 @@
       <c r="C449">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -8339,8 +9722,11 @@
       <c r="C450">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -8350,8 +9736,11 @@
       <c r="C451">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -8361,8 +9750,11 @@
       <c r="C452">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -8372,8 +9764,11 @@
       <c r="C453">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -8383,8 +9778,11 @@
       <c r="C454">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -8394,8 +9792,11 @@
       <c r="C455">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -8405,8 +9806,11 @@
       <c r="C456">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -8416,8 +9820,11 @@
       <c r="C457">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -8427,8 +9834,11 @@
       <c r="C458">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -8438,8 +9848,11 @@
       <c r="C459">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -8449,8 +9862,11 @@
       <c r="C460">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -8460,8 +9876,11 @@
       <c r="C461">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -8471,8 +9890,11 @@
       <c r="C462">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -8482,8 +9904,11 @@
       <c r="C463">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -8493,8 +9918,11 @@
       <c r="C464">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -8504,8 +9932,11 @@
       <c r="C465">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -8515,8 +9946,11 @@
       <c r="C466">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -8526,8 +9960,11 @@
       <c r="C467">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -8537,8 +9974,11 @@
       <c r="C468">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -8548,8 +9988,11 @@
       <c r="C469">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -8559,8 +10002,11 @@
       <c r="C470">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D470" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -8570,8 +10016,11 @@
       <c r="C471">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D471" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -8581,8 +10030,11 @@
       <c r="C472">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D472" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -8592,8 +10044,11 @@
       <c r="C473">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D473" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -8603,8 +10058,11 @@
       <c r="C474">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D474" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -8614,8 +10072,11 @@
       <c r="C475">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D475" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -8625,8 +10086,11 @@
       <c r="C476">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D476" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -8636,8 +10100,11 @@
       <c r="C477">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -8647,8 +10114,11 @@
       <c r="C478">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -8658,8 +10128,11 @@
       <c r="C479">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -8669,8 +10142,11 @@
       <c r="C480">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -8680,8 +10156,11 @@
       <c r="C481">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -8691,8 +10170,11 @@
       <c r="C482">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D482" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -8702,8 +10184,11 @@
       <c r="C483">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D483" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -8713,8 +10198,11 @@
       <c r="C484">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D484" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -8724,8 +10212,11 @@
       <c r="C485">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D485" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -8735,8 +10226,11 @@
       <c r="C486">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D486" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -8746,8 +10240,11 @@
       <c r="C487">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D487" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -8757,8 +10254,11 @@
       <c r="C488">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D488" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -8768,8 +10268,11 @@
       <c r="C489">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D489" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -8779,8 +10282,11 @@
       <c r="C490">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D490" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -8790,8 +10296,11 @@
       <c r="C491">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -8801,8 +10310,11 @@
       <c r="C492">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D492" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -8812,8 +10324,11 @@
       <c r="C493">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D493" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -8823,8 +10338,11 @@
       <c r="C494">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D494" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -8834,8 +10352,11 @@
       <c r="C495">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D495" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -8845,8 +10366,11 @@
       <c r="C496">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D496" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -8856,8 +10380,11 @@
       <c r="C497">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D497" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -8867,9 +10394,17 @@
       <c r="C498">
         <v>497</v>
       </c>
+      <c r="D498" t="s">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{40CFAD94-F0ED-489B-AB83-C7A69BB82CC2}"/>
+  <autoFilter ref="A1:D498" xr:uid="{2AFF0037-91BC-49DA-B521-E8BB52BFA66A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D498">
+      <sortCondition ref="C1:C498"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>